--- a/backend/src/main/resources/excel/U7C4.xlsx
+++ b/backend/src/main/resources/excel/U7C4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4168045520782471</v>
+        <v>0.4147551953792572</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4165466725826263</v>
+        <v>0.4166816771030426</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4165394902229309</v>
+        <v>0.421395868062973</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4162640869617462</v>
+        <v>0.4165078699588776</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4165027439594269</v>
+        <v>0.4156592786312103</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7558095455169678</v>
+        <v>0.4161123633384705</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7571564316749573</v>
+        <v>0.753634512424469</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7573468685150146</v>
+        <v>0.7580243349075317</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7526931762695312</v>
+        <v>0.7558661699295044</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7573245763778687</v>
+        <v>0.7547531723976135</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7547743916511536</v>
+        <v>0.7553254365921021</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7533859014511108</v>
+        <v>0.7570488452911377</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7564443349838257</v>
+        <v>0.7554426789283752</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7560296654701233</v>
+        <v>0.7545845508575439</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7580947875976562</v>
+        <v>0.7558107376098633</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7527198195457458</v>
+        <v>0.7580917477607727</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7568020820617676</v>
+        <v>0.7552335262298584</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7568694353103638</v>
+        <v>0.7566022276878357</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7567824721336365</v>
+        <v>0.7566038966178894</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7553467154502869</v>
+        <v>0.7550292611122131</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7558640241622925</v>
+        <v>0.7571298480033875</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7576398849487305</v>
+        <v>0.7564976215362549</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7582155466079712</v>
+        <v>0.7557196021080017</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.755743682384491</v>
+        <v>0.7563115358352661</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7571654319763184</v>
+        <v>0.7560075521469116</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7559856176376343</v>
+        <v>0.7584363222122192</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7581087946891785</v>
+        <v>0.7550672888755798</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7543449401855469</v>
+        <v>0.7561483383178711</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7568240165710449</v>
+        <v>0.7566919326782227</v>
       </c>
     </row>
     <row r="31">
@@ -769,131 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7555209994316101</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>93</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7559295892715454</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>94</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.7564691305160522</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>96</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.7562567591667175</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>98</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.7531635761260986</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>112</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.757178008556366</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>116</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.7557563781738281</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>117</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.7556079626083374</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>118</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.7557920813560486</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>130</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.7554205656051636</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>135</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.7553543448448181</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>148</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.7575634717941284</v>
+        <v>0.7562659382820129</v>
       </c>
     </row>
   </sheetData>
